--- a/sequences/32_localizer.xlsx
+++ b/sequences/32_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
   </si>
   <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
   </si>
   <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
   </si>
   <si>
     <t>face/face058.jpg</t>
   </si>
   <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
     <t>house/house073.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
     <t>flower/flower087.jpg</t>
   </si>
   <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
     <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.555440780589652</v>
+        <v>1.841594534659613</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.362005332404871</v>
+        <v>1.498972998232106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.643529725346965</v>
+        <v>1.402151086011773</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.589451741449876</v>
+        <v>1.568761965320774</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.480068421960904</v>
+        <v>1.733562694141039</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.377155458534888</v>
+        <v>1.552687851685881</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.580443216145981</v>
+        <v>1.599910098049023</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.580401031827277</v>
+        <v>1.604275821049769</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.46949108558422</v>
+        <v>1.632473720676561</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.580930804067741</v>
+        <v>1.25600218570044</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.663876783785161</v>
+        <v>1.423518087738981</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.513067375938621</v>
+        <v>1.408324817008544</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.32076597623503</v>
+        <v>1.635991963904128</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.360568575787753</v>
+        <v>1.28529715585637</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.392176262824761</v>
+        <v>1.633113510833087</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.520397325490036</v>
+        <v>1.445266110972922</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.344581849094138</v>
+        <v>1.366092467549425</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.319494332993351</v>
+        <v>1.403813853455331</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.531932646944282</v>
+        <v>1.480828828818032</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.546906787901833</v>
+        <v>1.720452371531793</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.334354883394472</v>
+        <v>1.701773462157684</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.679522906528761</v>
+        <v>1.4379853987618</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.294526893067059</v>
+        <v>1.303211011971083</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.443251885613464</v>
+        <v>1.629345592647321</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.752808669895544</v>
+        <v>1.551501426481822</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.528763083059839</v>
+        <v>1.422730210892011</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.564765269175059</v>
+        <v>1.495269059937668</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.367230414721485</v>
+        <v>1.684062735036816</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.370668452178329</v>
+        <v>1.809172121620474</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.626977187857213</v>
+        <v>1.63202625578197</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.68690694155193</v>
+        <v>1.412566214124127</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.469377202739491</v>
+        <v>1.337756032756499</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.787171743871877</v>
+        <v>1.539225331443496</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.471858796976986</v>
+        <v>1.629593876079405</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.722034396765778</v>
+        <v>1.66760954939971</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.615345154139257</v>
+        <v>1.514504765069433</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.775560529457143</v>
+        <v>1.598159718452495</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.58837869038953</v>
+        <v>1.587917892084973</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.668550500319322</v>
+        <v>1.353765633366317</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.508882972658707</v>
+        <v>1.627876862350444</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.58255596144771</v>
+        <v>1.56898530410724</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.455451649964761</v>
+        <v>1.640976688632565</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.638773563474418</v>
+        <v>1.226778182131202</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.421566805392199</v>
+        <v>1.255929968726554</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1.467750913940772</v>
+        <v>1.662345492791853</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.80206658752886</v>
+        <v>1.582840129860558</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.336070023575411</v>
+        <v>1.386006887677033</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.465471079088439</v>
+        <v>1.586310213099699</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.692828883375815</v>
+        <v>1.439279125733027</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.45637544120176</v>
+        <v>1.675197622188344</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.021573265266117</v>
+        <v>1.308266894455113</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.432765567905952</v>
+        <v>1.615051046223624</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.365688133639733</v>
+        <v>1.676903100708399</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.678340771415241</v>
+        <v>1.359453877686724</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.59029418219653</v>
+        <v>1.269319651505663</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.362026700210696</v>
+        <v>1.059423619796332</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1.322802058669359</v>
+        <v>1.646378745247967</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.622374426058288</v>
+        <v>1.361633125877867</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.417151539601957</v>
+        <v>1.450651089801246</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.624055380720846</v>
+        <v>1.360284512171355</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.549328679268852</v>
+        <v>1.458383983756214</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.650234700445105</v>
+        <v>1.800464400190342</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.434910454896507</v>
+        <v>1.617140948150165</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.591748662266093</v>
+        <v>1.386686898564021</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.566763463215333</v>
+        <v>1.338785516296561</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.506545913756555</v>
+        <v>1.468079884650941</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.422512736875259</v>
+        <v>1.43819737367698</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.510881260637908</v>
+        <v>1.765834611173948</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.578879444088781</v>
+        <v>1.530640389529499</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.652305996518321</v>
+        <v>1.313046058093466</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.636072496788311</v>
+        <v>1.452170462709063</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.466136882107981</v>
+        <v>1.41573776665898</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.774246671204546</v>
+        <v>1.772677340144992</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.418826059132702</v>
+        <v>1.578278570825578</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.341358143054315</v>
+        <v>1.457211654389106</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.642157097203131</v>
+        <v>1.514013899968691</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.210444816897532</v>
+        <v>1.440274695140751</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.308461576628474</v>
+        <v>1.456069895344959</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.593453020964504</v>
+        <v>1.627477132366717</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.732096091967056</v>
+        <v>1.425170823791151</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.538009406054966</v>
+        <v>1.335842853769455</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.597386554336885</v>
+        <v>1.463617865875914</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.435834676236917</v>
+        <v>1.460711237883238</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.491663181875666</v>
+        <v>1.866450793770599</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.648330812872079</v>
+        <v>1.68301805979704</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.59405793153267</v>
+        <v>1.778688339228536</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.55971985209197</v>
+        <v>1.421296110429947</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.399589805947294</v>
+        <v>1.374976658409625</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.202342001662542</v>
+        <v>1.199567839604981</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.441857390294692</v>
+        <v>1.732923664515616</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.531389023924932</v>
+        <v>1.322592634623251</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.648247239401074</v>
+        <v>1.924141597065853</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.546089698197429</v>
+        <v>1.651747697007778</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.536877250485894</v>
+        <v>1.545906683408137</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.338030723389549</v>
+        <v>1.662478617832229</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.532035614480926</v>
+        <v>1.726173799397346</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.419509752025788</v>
+        <v>1.667152860526753</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.70246415897997</v>
+        <v>1.475629899819315</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.662135963442401</v>
+        <v>1.553015842467414</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.553534765571932</v>
+        <v>1.159029838756723</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.511948905454218</v>
+        <v>1.416739912344136</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.751330135446445</v>
+        <v>1.626697912674595</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.334941893303328</v>
+        <v>1.489428911131829</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.641890063585583</v>
+        <v>1.336474129519045</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.518839942417323</v>
+        <v>1.484055891655779</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.664401722186366</v>
+        <v>1.423044351959187</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.271625142594037</v>
+        <v>1.38096465211732</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.483186961099864</v>
+        <v>1.539706116084181</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.382085727374035</v>
+        <v>1.133086059307253</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.593459609484062</v>
+        <v>1.307007709358112</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.458915379024017</v>
+        <v>1.501171383339725</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.593531558720445</v>
+        <v>1.569765183126475</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.660700453153378</v>
+        <v>1.55654477582366</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.378410824118045</v>
+        <v>1.748844102991773</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.591878584058163</v>
+        <v>1.648952363761554</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.566892960117746</v>
+        <v>1.474293517268104</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.497725705066179</v>
+        <v>1.403157847871585</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.492077527029877</v>
+        <v>1.56285332408832</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.45024237305896</v>
+        <v>1.521864052053318</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.684280225216996</v>
+        <v>1.481475649062706</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.5815575830299</v>
+        <v>1.419593439193349</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.579866238822093</v>
+        <v>1.5679001297695</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1.508243247234138</v>
+        <v>1.544737165703148</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.676799191789512</v>
+        <v>1.318978804254821</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.487786740344315</v>
+        <v>1.224975525533605</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.67013253616438</v>
+        <v>1.402433711433689</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.612573924897445</v>
+        <v>1.684212297914007</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.691513261175648</v>
+        <v>1.54624162661042</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.288948990597416</v>
+        <v>1.424423945161632</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.719645656620189</v>
+        <v>1.246684732563403</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.343326552047139</v>
+        <v>1.608155986870173</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.379748882050982</v>
+        <v>1.495620393915417</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.491956940284313</v>
+        <v>1.81021316819636</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.488467521471513</v>
+        <v>1.495999655112547</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.328505114424281</v>
+        <v>1.614686862474705</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.535161500210579</v>
+        <v>1.423507847772253</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.365352967481051</v>
+        <v>1.655087174560633</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.450346426711417</v>
+        <v>1.535221118121703</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.391049974228427</v>
+        <v>1.350001392759326</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.603533844314169</v>
+        <v>1.761954686503172</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.578100666534896</v>
+        <v>1.492854442398512</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.360682625252801</v>
+        <v>1.72231735432474</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.659546899013148</v>
+        <v>1.755071060492815</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.470205978640178</v>
+        <v>1.3995961106489</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.353070003826885</v>
+        <v>1.392217870746388</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.779547237565224</v>
+        <v>1.448185826643572</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.377702683015788</v>
+        <v>1.480925526409227</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.527946475777663</v>
+        <v>1.374761793837137</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.372078841848739</v>
+        <v>1.563155947626423</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>1.548314239786211</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.47888315903097</v>
+        <v>1.423659486533406</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.541946207133127</v>
+        <v>1.579932131258644</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.658142803341665</v>
+        <v>1.329882732419852</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.513137501676439</v>
+        <v>1.500833495013551</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.32986233413622</v>
+        <v>1.652186574434679</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.523144101174363</v>
+        <v>1.50178100447595</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.542421222761448</v>
+        <v>1.394163562399798</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.354003796968056</v>
+        <v>1.597586399590429</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.669448756995392</v>
+        <v>1.486493332487426</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.611147697753094</v>
+        <v>1.561847810957471</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.494504823812751</v>
+        <v>1.44625668223157</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.387455063030576</v>
+        <v>1.407477080821219</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.718176342060854</v>
+        <v>1.460940140004565</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.565676873026302</v>
+        <v>1.455169934934942</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.675432542176158</v>
+        <v>1.641014963728597</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.580916954045895</v>
+        <v>1.48738836577934</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.601211548241344</v>
+        <v>1.487926056196899</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.384657824073156</v>
+        <v>1.637845086760246</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.273789911376589</v>
+        <v>1.532997528798754</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.609403490605586</v>
+        <v>1.458671617353268</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.741950487285135</v>
+        <v>1.637753790031604</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.529375396939659</v>
+        <v>1.701261897010773</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.806327223235032</v>
+        <v>1.529058645477974</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.738665061988081</v>
+        <v>1.552827222512157</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.502791581873593</v>
+        <v>1.528780487393307</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.651412685683027</v>
+        <v>1.577883387871605</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.319956292978333</v>
+        <v>1.340927845627019</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.124369923043113</v>
+        <v>1.436621530086757</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.528828851093572</v>
+        <v>1.689774137982245</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.433854569959322</v>
+        <v>1.776762948497657</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.550642328559885</v>
+        <v>1.433019716333984</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.766968574857674</v>
+        <v>1.374388514834773</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.609383164084725</v>
+        <v>1.523772848594667</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.386258117219836</v>
+        <v>1.637691981399727</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <v>1.15820460487712</v>
+        <v>1.399744736032052</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.341767031814247</v>
+        <v>1.622467060073019</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.530234317111284</v>
+        <v>1.598123906204931</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.248068670468113</v>
+        <v>1.572660885917416</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.316804675647146</v>
+        <v>1.304451560000869</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.185406784539391</v>
+        <v>1.323069306577153</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.340180256472417</v>
+        <v>1.64754251045737</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.545405976840399</v>
+        <v>1.686673882406359</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.467450856169229</v>
+        <v>1.330032769999175</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.511768492449941</v>
+        <v>1.759036563641171</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.519508167535356</v>
+        <v>1.427077572773738</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.52655370962092</v>
+        <v>1.589561737314447</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.538422796695184</v>
+        <v>1.429126571893367</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.398221566358371</v>
+        <v>1.564578913482886</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.599327394183931</v>
+        <v>1.566466510018313</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.478604983907129</v>
+        <v>1.367671801427938</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.494852128956438</v>
+        <v>1.263095276544971</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.704385356702153</v>
+        <v>1.648975367411992</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.441686016066869</v>
+        <v>1.342058328134956</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.370908483421113</v>
+        <v>1.296301110167888</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.129983546751134</v>
+        <v>1.586592393435813</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.178262524321104</v>
+        <v>1.1926436291735</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.450008466174842</v>
+        <v>1.429403926685835</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.566390395499708</v>
+        <v>1.658925033044548</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.34618134759073</v>
+        <v>1.579336095824814</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.476037170638248</v>
+        <v>1.501632404500756</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.497679927758424</v>
+        <v>1.358014632576994</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.597015812572077</v>
+        <v>1.710248084176652</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.447216431810143</v>
+        <v>1.764029127538676</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.666826522223136</v>
+        <v>1.497730971988541</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.389959868446543</v>
+        <v>1.561487010367106</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.409681119341055</v>
+        <v>1.632028727543309</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.616025111752084</v>
+        <v>1.53612719992597</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.391424300127369</v>
+        <v>1.631095512852327</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.359330893626087</v>
+        <v>1.523165708151694</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>1.314109213693881</v>
+        <v>1.24264981919935</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.553074076132638</v>
+        <v>1.628209222969208</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.536347908314895</v>
+        <v>1.356640708706858</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.594348133017637</v>
+        <v>1.455564090581142</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.506514842449434</v>
+        <v>1.700886846313052</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.320852268274204</v>
+        <v>1.439672511515323</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.252803612911241</v>
+        <v>1.494826872962549</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.494887480540659</v>
+        <v>1.506113675159561</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.700550496699103</v>
+        <v>1.345009973353446</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.507505272227365</v>
+        <v>1.462204273601987</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.262710353122607</v>
+        <v>1.724223822433289</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.392535577316876</v>
+        <v>1.533735121253894</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.621568962239328</v>
+        <v>1.416341613426938</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.517369637724546</v>
+        <v>1.538289317701206</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.419722374964722</v>
+        <v>1.456576502940547</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.474739900076519</v>
+        <v>1.521119984751756</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.278548451087136</v>
+        <v>1.547630497596573</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.495793388023462</v>
+        <v>1.634323822203714</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.531437884204227</v>
+        <v>1.559301435722539</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.364461627148718</v>
+        <v>1.652368771544388</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.589561683122624</v>
+        <v>1.450540847908092</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>1.449013533242238</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.375432805930582</v>
+        <v>1.24145579680477</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.868653653807914</v>
+        <v>1.603445623121868</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.528364676782674</v>
+        <v>1.684274684196487</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.469249302324984</v>
+        <v>1.349067520251215</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.670256138399931</v>
+        <v>1.524494809806363</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.202995620112289</v>
+        <v>1.446874871952882</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.491697666378283</v>
+        <v>1.50775269728391</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.337669623479276</v>
+        <v>1.62497065904626</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.430752272386283</v>
+        <v>1.507125180928333</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.555945274137921</v>
+        <v>1.744236249400174</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.507330665986325</v>
+        <v>1.617471335216627</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.528828696099682</v>
+        <v>1.218855074571592</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.679098097390532</v>
+        <v>1.320518901040448</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.147709337966301</v>
+        <v>1.636377982760427</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.353037934461414</v>
+        <v>1.599045510301341</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/32_localizer.xlsx
+++ b/sequences/32_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>dog/dog054.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>dog/dog057.jpg</t>
   </si>
   <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
   </si>
   <si>
     <t>dog/dog061.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
   </si>
   <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>face/face072.jpg</t>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
   </si>
   <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
+    <t>dog/dog077.jpg</t>
   </si>
   <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
   </si>
   <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>flower/flower083.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
+    <t>dog/dog081.jpg</t>
   </si>
   <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
     <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.841594534659613</v>
+        <v>1.799760265426024</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.498972998232106</v>
+        <v>1.572172066696741</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.402151086011773</v>
+        <v>1.599230348206897</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.568761965320774</v>
+        <v>1.722481034978043</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.733562694141039</v>
+        <v>1.143535814295735</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.552687851685881</v>
+        <v>1.547022478531972</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.599910098049023</v>
+        <v>1.734101007287183</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.604275821049769</v>
+        <v>1.57126650097446</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.632473720676561</v>
+        <v>1.363715824623787</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.25600218570044</v>
+        <v>1.60061418767832</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.423518087738981</v>
+        <v>1.48877997779314</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.408324817008544</v>
+        <v>1.348332423931941</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.635991963904128</v>
+        <v>1.516701319346413</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.28529715585637</v>
+        <v>1.486172451863706</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.633113510833087</v>
+        <v>1.407288429219885</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.445266110972922</v>
+        <v>1.662406910973517</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.366092467549425</v>
+        <v>1.652944135064215</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.403813853455331</v>
+        <v>1.590967266413962</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.480828828818032</v>
+        <v>1.427927552008714</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.720452371531793</v>
+        <v>1.339591956264987</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.701773462157684</v>
+        <v>1.589028081772598</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.4379853987618</v>
+        <v>1.623583252388528</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.303211011971083</v>
+        <v>1.419962642478965</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.629345592647321</v>
+        <v>1.611795800964855</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.551501426481822</v>
+        <v>1.28273033980357</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.422730210892011</v>
+        <v>1.647371861150814</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.495269059937668</v>
+        <v>1.255766656091991</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.684062735036816</v>
+        <v>1.47054088321113</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.809172121620474</v>
+        <v>1.474742627880892</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.63202625578197</v>
+        <v>1.546140382306196</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.412566214124127</v>
+        <v>1.585288782267767</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.337756032756499</v>
+        <v>1.619684517468731</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.539225331443496</v>
+        <v>1.721418073491463</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.629593876079405</v>
+        <v>1.491399459776943</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.66760954939971</v>
+        <v>1.691367665326615</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.514504765069433</v>
+        <v>1.525989662283132</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.598159718452495</v>
+        <v>1.55771079844121</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.587917892084973</v>
+        <v>1.73270567095716</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.353765633366317</v>
+        <v>1.108341551630611</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.627876862350444</v>
+        <v>1.758763008864297</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.56898530410724</v>
+        <v>1.282942810326763</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.640976688632565</v>
+        <v>1.414066447588236</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.226778182131202</v>
+        <v>1.574734099264885</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.255929968726554</v>
+        <v>1.52065556736656</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.662345492791853</v>
+        <v>1.537035454952972</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.582840129860558</v>
+        <v>1.533479578051875</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.386006887677033</v>
+        <v>1.597233075704152</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.586310213099699</v>
+        <v>1.773860111902397</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.439279125733027</v>
+        <v>1.631696848821749</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.675197622188344</v>
+        <v>1.638892756238783</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.308266894455113</v>
+        <v>1.457589571605404</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.615051046223624</v>
+        <v>1.283871149378178</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.676903100708399</v>
+        <v>1.696764961699618</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.359453877686724</v>
+        <v>1.629728610017068</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.269319651505663</v>
+        <v>1.591968178248068</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.059423619796332</v>
+        <v>1.403296907668812</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.646378745247967</v>
+        <v>1.328435164088703</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.361633125877867</v>
+        <v>1.797835552307642</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1.450651089801246</v>
+        <v>1.494439720395068</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.360284512171355</v>
+        <v>1.601832688559063</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.458383983756214</v>
+        <v>1.459809914045961</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.800464400190342</v>
+        <v>1.598181371430845</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.617140948150165</v>
+        <v>1.383265054049768</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.386686898564021</v>
+        <v>1.601718300939429</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.338785516296561</v>
+        <v>1.36988614901797</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.468079884650941</v>
+        <v>1.665507705779721</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.43819737367698</v>
+        <v>1.602539807302895</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.765834611173948</v>
+        <v>1.555091803395427</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.530640389529499</v>
+        <v>1.570654017248279</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.313046058093466</v>
+        <v>1.634532818486968</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.452170462709063</v>
+        <v>1.61888057749116</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.41573776665898</v>
+        <v>1.433229931798329</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.772677340144992</v>
+        <v>1.594907571411422</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.578278570825578</v>
+        <v>1.583364381499649</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.457211654389106</v>
+        <v>1.590593435558438</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.514013899968691</v>
+        <v>1.388649640538054</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.440274695140751</v>
+        <v>1.300382387926855</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.456069895344959</v>
+        <v>1.259028184043861</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.627477132366717</v>
+        <v>1.409813971726026</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.425170823791151</v>
+        <v>1.311642161208987</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.335842853769455</v>
+        <v>1.596038759498961</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.463617865875914</v>
+        <v>1.304262995607369</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.460711237883238</v>
+        <v>1.320228581723807</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.866450793770599</v>
+        <v>1.457582820716207</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.68301805979704</v>
+        <v>1.487165267546296</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.778688339228536</v>
+        <v>1.849767502657133</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.421296110429947</v>
+        <v>1.415021094366546</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.374976658409625</v>
+        <v>1.556363294478344</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.199567839604981</v>
+        <v>1.370755676526042</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.732923664515616</v>
+        <v>1.479808459514185</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.322592634623251</v>
+        <v>1.612056392239432</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1.924141597065853</v>
+        <v>1.307880826952269</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.651747697007778</v>
+        <v>1.136697179334608</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.545906683408137</v>
+        <v>1.72553758375864</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.662478617832229</v>
+        <v>1.420011700061514</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.726173799397346</v>
+        <v>1.478554485138787</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.667152860526753</v>
+        <v>1.35002630194171</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.475629899819315</v>
+        <v>1.651102169373265</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.553015842467414</v>
+        <v>1.579783277986637</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.159029838756723</v>
+        <v>1.614402927138246</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.416739912344136</v>
+        <v>1.532171471528496</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.626697912674595</v>
+        <v>1.32743417930711</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.489428911131829</v>
+        <v>1.170358159125546</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.336474129519045</v>
+        <v>1.311413950192338</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.484055891655779</v>
+        <v>1.473551398356751</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.423044351959187</v>
+        <v>1.500051912435596</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.38096465211732</v>
+        <v>1.62276653879101</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.539706116084181</v>
+        <v>1.409288452237741</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.133086059307253</v>
+        <v>1.600130965447228</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.307007709358112</v>
+        <v>1.710912736030816</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.501171383339725</v>
+        <v>1.510498707505825</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.569765183126475</v>
+        <v>1.570164064342381</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.55654477582366</v>
+        <v>1.598641030355111</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.748844102991773</v>
+        <v>1.733009251392238</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.648952363761554</v>
+        <v>1.595401900301309</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.474293517268104</v>
+        <v>1.352764031122796</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.403157847871585</v>
+        <v>1.255830378373229</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.56285332408832</v>
+        <v>1.321245253546458</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.521864052053318</v>
+        <v>1.311699440672553</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.481475649062706</v>
+        <v>1.367332628455255</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.419593439193349</v>
+        <v>1.53803542437804</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.5679001297695</v>
+        <v>1.400243420756659</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.544737165703148</v>
+        <v>1.355351694230327</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.318978804254821</v>
+        <v>1.560133008809874</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.224975525533605</v>
+        <v>1.484840940589391</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.402433711433689</v>
+        <v>1.355728144834446</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.684212297914007</v>
+        <v>1.213831565040138</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.54624162661042</v>
+        <v>1.701087061368469</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.424423945161632</v>
+        <v>1.531540768215994</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.246684732563403</v>
+        <v>1.538966916959785</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.608155986870173</v>
+        <v>1.516381601024635</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.495620393915417</v>
+        <v>1.243977612670644</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.81021316819636</v>
+        <v>1.749434339365803</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.495999655112547</v>
+        <v>1.30091803137221</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.614686862474705</v>
+        <v>1.582044334186643</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.423507847772253</v>
+        <v>1.410060800556479</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.655087174560633</v>
+        <v>1.685623134825867</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.535221118121703</v>
+        <v>1.322879603835961</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.350001392759326</v>
+        <v>1.459086744061941</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.761954686503172</v>
+        <v>1.595881635230618</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.492854442398512</v>
+        <v>1.593438902387024</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.72231735432474</v>
+        <v>1.87707680061006</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.755071060492815</v>
+        <v>1.51765802322538</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.3995961106489</v>
+        <v>1.376451075837194</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.392217870746388</v>
+        <v>1.534460100870448</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.448185826643572</v>
+        <v>1.533833537526298</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.480925526409227</v>
+        <v>1.786436650991162</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.374761793837137</v>
+        <v>1.504506740019129</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.563155947626423</v>
+        <v>1.393371044679874</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.548314239786211</v>
+        <v>1.477800356898453</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.423659486533406</v>
+        <v>1.385980237681625</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.579932131258644</v>
+        <v>1.264304308511474</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.329882732419852</v>
+        <v>1.539835039698028</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.500833495013551</v>
+        <v>1.465039816715423</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.652186574434679</v>
+        <v>1.212228385568946</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.50178100447595</v>
+        <v>1.515397877870578</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.394163562399798</v>
+        <v>1.684145618430899</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.597586399590429</v>
+        <v>1.406427068723616</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.486493332487426</v>
+        <v>1.62729424583478</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.561847810957471</v>
+        <v>1.293568101923068</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.44625668223157</v>
+        <v>1.597579006496689</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.407477080821219</v>
+        <v>1.427321565241792</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.460940140004565</v>
+        <v>1.391685932275217</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.455169934934942</v>
+        <v>1.390562381485931</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.641014963728597</v>
+        <v>1.545505497183467</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.48738836577934</v>
+        <v>1.380793688206335</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.487926056196899</v>
+        <v>1.561944952673443</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.637845086760246</v>
+        <v>1.433631879474371</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.532997528798754</v>
+        <v>1.580696794311898</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.458671617353268</v>
+        <v>1.36969286567301</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.637753790031604</v>
+        <v>1.668559806189887</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.701261897010773</v>
+        <v>1.521891684180537</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.529058645477974</v>
+        <v>1.464828202767849</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.552827222512157</v>
+        <v>1.286431533614012</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>1.528780487393307</v>
+        <v>1.566390052277795</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.577883387871605</v>
+        <v>1.382030206772392</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.340927845627019</v>
+        <v>1.492107467881879</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.436621530086757</v>
+        <v>1.701001911331403</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <v>1.689774137982245</v>
+        <v>1.5464592345855</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.776762948497657</v>
+        <v>1.711768511776958</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.433019716333984</v>
+        <v>1.439187242080579</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.374388514834773</v>
+        <v>1.459961468819726</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.523772848594667</v>
+        <v>1.153593156170785</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.637691981399727</v>
+        <v>1.454191476784019</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <v>1.399744736032052</v>
+        <v>1.407089654118595</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.622467060073019</v>
+        <v>1.168220834878977</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.598123906204931</v>
+        <v>1.661648523208347</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.572660885917416</v>
+        <v>1.467962412744471</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.304451560000869</v>
+        <v>1.834852487604458</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.323069306577153</v>
+        <v>1.541855431355315</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.64754251045737</v>
+        <v>1.550069331692195</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.686673882406359</v>
+        <v>1.374915717723626</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.330032769999175</v>
+        <v>1.330099993715913</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.759036563641171</v>
+        <v>1.380282805427537</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.427077572773738</v>
+        <v>1.336297127082742</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.589561737314447</v>
+        <v>1.671480124765868</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.429126571893367</v>
+        <v>1.305452418374944</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.564578913482886</v>
+        <v>1.475736914111728</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.566466510018313</v>
+        <v>1.609296982137874</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.367671801427938</v>
+        <v>1.534915679206424</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.263095276544971</v>
+        <v>1.287103138956297</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.648975367411992</v>
+        <v>1.37362653558766</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.342058328134956</v>
+        <v>1.48047253180628</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.296301110167888</v>
+        <v>1.356010921468342</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.586592393435813</v>
+        <v>1.653003663001047</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.1926436291735</v>
+        <v>1.461577332021379</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.429403926685835</v>
+        <v>1.606576643602544</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.658925033044548</v>
+        <v>1.498807097361341</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.579336095824814</v>
+        <v>1.356467049694891</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.501632404500756</v>
+        <v>1.317240901404158</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.358014632576994</v>
+        <v>1.422519240568861</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.710248084176652</v>
+        <v>1.545148201150171</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.764029127538676</v>
+        <v>1.350623432000293</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.497730971988541</v>
+        <v>1.433121373987705</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.561487010367106</v>
+        <v>1.529265251555002</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.632028727543309</v>
+        <v>1.525383128078767</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.53612719992597</v>
+        <v>1.516166297435692</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.631095512852327</v>
+        <v>1.406908072403406</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.523165708151694</v>
+        <v>1.333573987672907</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>1.24264981919935</v>
+        <v>1.428465348507742</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>1.628209222969208</v>
+        <v>1.312796516527121</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.356640708706858</v>
+        <v>1.937657406997948</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.455564090581142</v>
+        <v>1.220619388872594</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.700886846313052</v>
+        <v>1.442696001804451</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.439672511515323</v>
+        <v>1.463205555716509</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.494826872962549</v>
+        <v>1.488674966940432</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.506113675159561</v>
+        <v>1.528285763590517</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.345009973353446</v>
+        <v>1.517171378281301</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.462204273601987</v>
+        <v>1.254418830252352</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.724223822433289</v>
+        <v>1.417227987203418</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.533735121253894</v>
+        <v>1.477637691398998</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.416341613426938</v>
+        <v>1.331804872972528</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.538289317701206</v>
+        <v>1.634640264919379</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.456576502940547</v>
+        <v>1.5572526459428</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.521119984751756</v>
+        <v>1.750473630195752</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.547630497596573</v>
+        <v>1.707235017903884</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.634323822203714</v>
+        <v>1.340801902705712</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.559301435722539</v>
+        <v>1.635633471420608</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.652368771544388</v>
+        <v>1.343406651093847</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.450540847908092</v>
+        <v>1.316360924955861</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.449013533242238</v>
+        <v>1.759750967766781</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.24145579680477</v>
+        <v>1.577121868398411</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.603445623121868</v>
+        <v>1.897613391916303</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.684274684196487</v>
+        <v>1.477395624107569</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.349067520251215</v>
+        <v>1.25014047918247</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.524494809806363</v>
+        <v>1.586804721981311</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.446874871952882</v>
+        <v>1.400420094598526</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.50775269728391</v>
+        <v>1.391579445973294</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.62497065904626</v>
+        <v>1.194270690358884</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.507125180928333</v>
+        <v>1.359808665043751</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.744236249400174</v>
+        <v>1.540212840837494</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.617471335216627</v>
+        <v>1.722399341979889</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.218855074571592</v>
+        <v>1.646846636032508</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.320518901040448</v>
+        <v>1.406115313519761</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.636377982760427</v>
+        <v>1.588012065844801</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.599045510301341</v>
+        <v>1.40429593934279</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/32_localizer.xlsx
+++ b/sequences/32_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>flower</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
   </si>
   <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
   </si>
   <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
   </si>
   <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
   </si>
   <si>
     <t>face/face091.jpg</t>
   </si>
   <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
+    <t>house/house084.jpg</t>
   </si>
   <si>
     <t>house/house081.jpg</t>
   </si>
   <si>
-    <t>house/house082.jpg</t>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.799760265426024</v>
+        <v>1.716736099581336</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.572172066696741</v>
+        <v>1.551382344043531</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.599230348206897</v>
+        <v>1.430907325097561</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.722481034978043</v>
+        <v>1.452576144206137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.143535814295735</v>
+        <v>1.546356851559565</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.547022478531972</v>
+        <v>1.547135964161705</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.734101007287183</v>
+        <v>1.866283815131546</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.57126650097446</v>
+        <v>1.71867777889726</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.363715824623787</v>
+        <v>1.704990891073102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.60061418767832</v>
+        <v>1.536644372394836</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.48877997779314</v>
+        <v>1.386418758332121</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.348332423931941</v>
+        <v>1.427896040783584</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.516701319346413</v>
+        <v>1.650792486507357</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.486172451863706</v>
+        <v>1.394804231360222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.407288429219885</v>
+        <v>1.410961077299204</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.662406910973517</v>
+        <v>1.399590293434326</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.652944135064215</v>
+        <v>1.403378633762269</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.590967266413962</v>
+        <v>1.54513004009302</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.427927552008714</v>
+        <v>1.665457079579374</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.339591956264987</v>
+        <v>1.441481984862965</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.589028081772598</v>
+        <v>1.528713320231635</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.623583252388528</v>
+        <v>1.407497683809606</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.419962642478965</v>
+        <v>1.553659645933728</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.611795800964855</v>
+        <v>1.607877839341086</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.28273033980357</v>
+        <v>1.478944333841637</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.647371861150814</v>
+        <v>1.387315982754813</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.255766656091991</v>
+        <v>1.527011595428597</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.47054088321113</v>
+        <v>1.583591583276549</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.474742627880892</v>
+        <v>1.369512455626639</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.546140382306196</v>
+        <v>1.550025152936251</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.585288782267767</v>
+        <v>1.284861544352223</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.619684517468731</v>
+        <v>1.465033952869116</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.721418073491463</v>
+        <v>1.405340795106354</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.491399459776943</v>
+        <v>1.820297790540202</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.691367665326615</v>
+        <v>1.677266830068372</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.525989662283132</v>
+        <v>1.584744592271697</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.55771079844121</v>
+        <v>1.307806747213254</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.73270567095716</v>
+        <v>1.606548261052434</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.108341551630611</v>
+        <v>1.459213275160953</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.758763008864297</v>
+        <v>1.026213635056101</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.282942810326763</v>
+        <v>1.557677636848434</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.414066447588236</v>
+        <v>1.773083586847972</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.574734099264885</v>
+        <v>1.67485868774985</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.52065556736656</v>
+        <v>1.701312760229471</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.537035454952972</v>
+        <v>1.377413974593647</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.533479578051875</v>
+        <v>1.307355553482184</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.597233075704152</v>
+        <v>1.632653078233465</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.773860111902397</v>
+        <v>1.451252048796383</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.631696848821749</v>
+        <v>1.710402862851247</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.638892756238783</v>
+        <v>1.112967481482908</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.457589571605404</v>
+        <v>1.527979718573379</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.283871149378178</v>
+        <v>1.240432231106804</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.696764961699618</v>
+        <v>1.464896964665289</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.629728610017068</v>
+        <v>1.571999132478832</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.591968178248068</v>
+        <v>1.313084280336519</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.403296907668812</v>
+        <v>1.490698427598649</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.328435164088703</v>
+        <v>1.597435282921711</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.797835552307642</v>
+        <v>1.421971650370212</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.494439720395068</v>
+        <v>1.703466894579984</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.601832688559063</v>
+        <v>1.498369177942778</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.459809914045961</v>
+        <v>1.606214142607614</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.598181371430845</v>
+        <v>1.554026091903612</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.383265054049768</v>
+        <v>1.700434355924648</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.601718300939429</v>
+        <v>1.875136195313355</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.36988614901797</v>
+        <v>1.636593192322237</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.665507705779721</v>
+        <v>1.612981032864444</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.602539807302895</v>
+        <v>1.561502925988018</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.555091803395427</v>
+        <v>1.398887280671125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.570654017248279</v>
+        <v>1.589083054952741</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.634532818486968</v>
+        <v>1.52721598917722</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.61888057749116</v>
+        <v>1.343010402059011</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.433229931798329</v>
+        <v>1.297222598607165</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.594907571411422</v>
+        <v>1.794844087186914</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.583364381499649</v>
+        <v>1.392011479518626</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.590593435558438</v>
+        <v>1.237755902393037</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.388649640538054</v>
+        <v>1.463693768738258</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.300382387926855</v>
+        <v>1.762405669065298</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.259028184043861</v>
+        <v>1.472667599157151</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.409813971726026</v>
+        <v>1.432495425394625</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.311642161208987</v>
+        <v>1.423604527859229</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.596038759498961</v>
+        <v>1.518831235438416</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.304262995607369</v>
+        <v>1.546654945060025</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.320228581723807</v>
+        <v>1.608311843661531</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.457582820716207</v>
+        <v>1.449534037830047</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.487165267546296</v>
+        <v>1.505043657671256</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.849767502657133</v>
+        <v>1.23931584349745</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.415021094366546</v>
+        <v>1.470187175473262</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.556363294478344</v>
+        <v>1.678521730568576</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.370755676526042</v>
+        <v>1.674799201445762</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.479808459514185</v>
+        <v>1.566574265288261</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.612056392239432</v>
+        <v>1.682403734481901</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.307880826952269</v>
+        <v>1.446910262081904</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.136697179334608</v>
+        <v>1.4829914059897</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.72553758375864</v>
+        <v>1.5201602233267</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.420011700061514</v>
+        <v>1.584509940767883</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.478554485138787</v>
+        <v>1.25101430921904</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.35002630194171</v>
+        <v>1.670001857378466</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.651102169373265</v>
+        <v>1.72618241766655</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.579783277986637</v>
+        <v>1.651751215519262</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.614402927138246</v>
+        <v>1.474381616608178</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.532171471528496</v>
+        <v>1.695523224183177</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.32743417930711</v>
+        <v>1.271977135502023</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.170358159125546</v>
+        <v>1.384064255299353</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.311413950192338</v>
+        <v>1.570219855902956</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.473551398356751</v>
+        <v>1.375508896841716</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.500051912435596</v>
+        <v>1.224837197887971</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.62276653879101</v>
+        <v>1.198156347581666</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.409288452237741</v>
+        <v>1.81577957410384</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.600130965447228</v>
+        <v>1.546578585684989</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.710912736030816</v>
+        <v>1.561229945492175</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.510498707505825</v>
+        <v>1.48742859052805</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.570164064342381</v>
+        <v>1.79032037537519</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.598641030355111</v>
+        <v>1.363383252414734</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.733009251392238</v>
+        <v>1.551642463272179</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.595401900301309</v>
+        <v>1.049092706364914</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.352764031122796</v>
+        <v>1.66236004704641</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.255830378373229</v>
+        <v>1.35813223335786</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.321245253546458</v>
+        <v>1.38471546463872</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.311699440672553</v>
+        <v>1.806952811259759</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.367332628455255</v>
+        <v>1.806944454757518</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.53803542437804</v>
+        <v>1.481068056605439</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.400243420756659</v>
+        <v>1.358015320794641</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.355351694230327</v>
+        <v>1.447288166848434</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.560133008809874</v>
+        <v>1.621436139851649</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.484840940589391</v>
+        <v>1.136725788913006</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.355728144834446</v>
+        <v>1.680134352537416</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.213831565040138</v>
+        <v>1.418711923711137</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.701087061368469</v>
+        <v>1.51506088976324</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.531540768215994</v>
+        <v>1.612882108482039</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.538966916959785</v>
+        <v>1.491024282449196</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.516381601024635</v>
+        <v>1.831777285251047</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.243977612670644</v>
+        <v>1.436145309540567</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.749434339365803</v>
+        <v>1.259193630865067</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.30091803137221</v>
+        <v>1.308468119092938</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.582044334186643</v>
+        <v>1.326025461967944</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.410060800556479</v>
+        <v>1.371695400341225</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.685623134825867</v>
+        <v>1.266860525899137</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.322879603835961</v>
+        <v>1.646344753452394</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.459086744061941</v>
+        <v>1.773009914504054</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.595881635230618</v>
+        <v>1.728541057868741</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.593438902387024</v>
+        <v>1.65947853157996</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.87707680061006</v>
+        <v>1.458851332220663</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.51765802322538</v>
+        <v>1.243271198454003</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.376451075837194</v>
+        <v>1.222024949792162</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.534460100870448</v>
+        <v>1.441870992688716</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.533833537526298</v>
+        <v>1.661857972981064</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.786436650991162</v>
+        <v>1.525571889491212</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.504506740019129</v>
+        <v>1.355406329330281</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.393371044679874</v>
+        <v>1.380769796751639</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1.477800356898453</v>
+        <v>1.316900838618327</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.385980237681625</v>
+        <v>1.409542772414646</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.264304308511474</v>
+        <v>1.45490019266667</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.539835039698028</v>
+        <v>1.430264284137491</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.465039816715423</v>
+        <v>1.532864350015326</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.212228385568946</v>
+        <v>1.459730909058149</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.515397877870578</v>
+        <v>1.475543790334355</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.684145618430899</v>
+        <v>1.65172337089102</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.406427068723616</v>
+        <v>1.498217536337557</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.62729424583478</v>
+        <v>1.416062142541784</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.293568101923068</v>
+        <v>1.340268640971838</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.597579006496689</v>
+        <v>1.626620770411284</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.427321565241792</v>
+        <v>1.529889973459039</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.391685932275217</v>
+        <v>1.529043191631587</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.390562381485931</v>
+        <v>1.867987644570005</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.545505497183467</v>
+        <v>1.621183688142047</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.380793688206335</v>
+        <v>1.475115452091068</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.561944952673443</v>
+        <v>1.235907561197947</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.433631879474371</v>
+        <v>1.269656862481399</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.580696794311898</v>
+        <v>1.42837612838017</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.36969286567301</v>
+        <v>1.265519661026226</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.668559806189887</v>
+        <v>1.409694583976682</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.521891684180537</v>
+        <v>1.328422325185214</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.464828202767849</v>
+        <v>1.563006065966352</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.286431533614012</v>
+        <v>1.411977306847135</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.566390052277795</v>
+        <v>1.565225099920965</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.382030206772392</v>
+        <v>1.613759537667117</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.492107467881879</v>
+        <v>1.619424717086132</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.701001911331403</v>
+        <v>1.210285157603536</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.5464592345855</v>
+        <v>1.560926317315076</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.711768511776958</v>
+        <v>1.58105933184897</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.439187242080579</v>
+        <v>1.482102578974017</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.459961468819726</v>
+        <v>1.486490542102078</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.153593156170785</v>
+        <v>1.48853310761497</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.454191476784019</v>
+        <v>1.560217591131937</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.407089654118595</v>
+        <v>1.536323778705998</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.168220834878977</v>
+        <v>1.663281005163607</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.661648523208347</v>
+        <v>1.818007459412583</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.467962412744471</v>
+        <v>1.371953363675302</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.834852487604458</v>
+        <v>1.684530334716048</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.541855431355315</v>
+        <v>1.260527361731078</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.550069331692195</v>
+        <v>1.533811461001959</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.374915717723626</v>
+        <v>1.186274909152873</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.330099993715913</v>
+        <v>1.244086597389629</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.380282805427537</v>
+        <v>1.686476903150653</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.336297127082742</v>
+        <v>1.336228578443192</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.671480124765868</v>
+        <v>1.642279744307548</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.305452418374944</v>
+        <v>1.572392547519962</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.475736914111728</v>
+        <v>1.419657906640458</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.609296982137874</v>
+        <v>1.392591327662607</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.534915679206424</v>
+        <v>1.421240093843647</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.287103138956297</v>
+        <v>1.530078081647361</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.37362653558766</v>
+        <v>1.569172255244572</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.48047253180628</v>
+        <v>1.487060123713613</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.356010921468342</v>
+        <v>1.719562496131708</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.653003663001047</v>
+        <v>1.511306857118216</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.461577332021379</v>
+        <v>1.666395907207165</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.606576643602544</v>
+        <v>1.383314910578272</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.498807097361341</v>
+        <v>1.780223076018221</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.356467049694891</v>
+        <v>1.539109680033519</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.317240901404158</v>
+        <v>1.201699444632101</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.422519240568861</v>
+        <v>1.455348767425786</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.545148201150171</v>
+        <v>1.557206404117819</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.350623432000293</v>
+        <v>1.720234886741767</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.433121373987705</v>
+        <v>1.53191711887434</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.529265251555002</v>
+        <v>1.517966510497815</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.525383128078767</v>
+        <v>1.179936010199028</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.516166297435692</v>
+        <v>1.495609027111715</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.406908072403406</v>
+        <v>1.276329329596046</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.333573987672907</v>
+        <v>1.344508420536038</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.428465348507742</v>
+        <v>1.706150126409167</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.312796516527121</v>
+        <v>1.48015260003842</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.937657406997948</v>
+        <v>1.346496636370978</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.220619388872594</v>
+        <v>1.434639439577008</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.442696001804451</v>
+        <v>1.576998625828576</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.463205555716509</v>
+        <v>1.366297486629201</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.488674966940432</v>
+        <v>1.525075777629506</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.528285763590517</v>
+        <v>1.475097576664882</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.517171378281301</v>
+        <v>1.408689028114955</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.254418830252352</v>
+        <v>1.584951467081223</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.417227987203418</v>
+        <v>1.512008151669352</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.477637691398998</v>
+        <v>1.59228161145473</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.331804872972528</v>
+        <v>1.446411013659785</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.634640264919379</v>
+        <v>1.424492817111694</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.5572526459428</v>
+        <v>1.477728764140692</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.750473630195752</v>
+        <v>1.458957723850062</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.707235017903884</v>
+        <v>1.325831525546416</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.340801902705712</v>
+        <v>1.631117820271093</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.635633471420608</v>
+        <v>1.483637764068092</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.343406651093847</v>
+        <v>1.733544925296667</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.316360924955861</v>
+        <v>1.346023300079241</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.759750967766781</v>
+        <v>1.478800566654716</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.577121868398411</v>
+        <v>1.16203624262278</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.897613391916303</v>
+        <v>1.582901456640492</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.477395624107569</v>
+        <v>1.536571636757925</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.25014047918247</v>
+        <v>1.65819088974179</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.586804721981311</v>
+        <v>1.581366746808248</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.400420094598526</v>
+        <v>1.810197724858969</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.391579445973294</v>
+        <v>1.47009451292683</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.194270690358884</v>
+        <v>1.470016357962743</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.359808665043751</v>
+        <v>1.279458502739725</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.540212840837494</v>
+        <v>1.444424265136398</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.722399341979889</v>
+        <v>1.56817883253698</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.646846636032508</v>
+        <v>1.825396879394438</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1.406115313519761</v>
+        <v>1.453828375838159</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.588012065844801</v>
+        <v>1.636880842858808</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.40429593934279</v>
+        <v>1.379089304160535</v>
       </c>
     </row>
   </sheetData>
